--- a/blog/files/blog-初始化数据.xlsx
+++ b/blog/files/blog-初始化数据.xlsx
@@ -7,31 +7,19 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="CLASSIFICATION" sheetId="7" r:id="rId1"/>
+    <sheet name="TAG_INFO" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CLASSIFICATION!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TAG_INFO!$A$2:$A$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>生成语句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLASS_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLASS_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -43,19 +31,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpringBoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpringCloud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Spring Cloud</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Spring Boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAG_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,81 +443,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>CONCATENATE("INSERT INTO TAG_INFO (TAG_NAME,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"',now(),now());")</f>
+        <v>INSERT INTO TAG_INFO (TAG_NAME,UPDATE_TIME,CREATE_TIME) VALUES('Java',now(),now());</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B5" si="0">CONCATENATE("INSERT INTO TAG_INFO (TAG_NAME,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"',now(),now());")</f>
+        <v>INSERT INTO TAG_INFO (TAG_NAME,UPDATE_TIME,CREATE_TIME) VALUES('Spring Boot',now(),now());</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="str">
-        <f>CONCATENATE("INSERT INTO CLASSIFICATION (CLASS_CODE,CLASS_NAME,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"',now(),now());")</f>
-        <v>INSERT INTO CLASSIFICATION (CLASS_CODE,CLASS_NAME,UPDATE_TIME,CREATE_TIME) VALUES('Java','Java',now(),now());</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4:C5" si="0">CONCATENATE("INSERT INTO CLASSIFICATION (CLASS_CODE,CLASS_NAME,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"',now(),now());")</f>
-        <v>INSERT INTO CLASSIFICATION (CLASS_CODE,CLASS_NAME,UPDATE_TIME,CREATE_TIME) VALUES('SpringBoot','Spring Boot',now(),now());</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="str">
+      <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CLASSIFICATION (CLASS_CODE,CLASS_NAME,UPDATE_TIME,CREATE_TIME) VALUES('SpringCloud','Spring Cloud',now(),now());</v>
+        <v>INSERT INTO TAG_INFO (TAG_NAME,UPDATE_TIME,CREATE_TIME) VALUES('Spring Cloud',now(),now());</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:B2"/>
+  <autoFilter ref="A2"/>
   <mergeCells count="1">
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>